--- a/update_piazzole/template_update.xlsx
+++ b/update_piazzole/template_update.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20655</v>
+        <v>20191</v>
       </c>
       <c r="B3" t="str">
         <v>1</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20656</v>
+        <v>20192</v>
       </c>
       <c r="B4" t="str">
         <v>1</v>
@@ -413,31 +413,31 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20657</v>
+        <v>22236</v>
       </c>
       <c r="B5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20658</v>
+        <v>22730</v>
       </c>
       <c r="B6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20659</v>
+        <v>22731</v>
       </c>
       <c r="B7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20660</v>
+        <v>22732</v>
       </c>
       <c r="B8" t="str">
         <v>1</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20661</v>
+        <v>22733</v>
       </c>
       <c r="B9" t="str">
         <v>1</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20662</v>
+        <v>22825</v>
       </c>
       <c r="B10" t="str">
         <v>1</v>
@@ -461,15 +461,15 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20663</v>
+        <v>22826</v>
       </c>
       <c r="B11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20667</v>
+        <v>22827</v>
       </c>
       <c r="B12" t="str">
         <v>1</v>
@@ -477,15 +477,15 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20668</v>
+        <v>22829</v>
       </c>
       <c r="B13" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20836</v>
+        <v>22830</v>
       </c>
       <c r="B14" t="str">
         <v>1</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20837</v>
+        <v>22832</v>
       </c>
       <c r="B15" t="str">
         <v>1</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20838</v>
+        <v>23603</v>
       </c>
       <c r="B16" t="str">
         <v>1</v>
@@ -509,15 +509,15 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20839</v>
+        <v>23604</v>
       </c>
       <c r="B17" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20927</v>
+        <v>23605</v>
       </c>
       <c r="B18" t="str">
         <v>1</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>21008</v>
+        <v>23607</v>
       </c>
       <c r="B19" t="str">
         <v>1</v>
@@ -533,23 +533,23 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>21009</v>
+        <v>23617</v>
       </c>
       <c r="B20" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>21371</v>
+        <v>24260</v>
       </c>
       <c r="B21" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>21372</v>
+        <v>25000</v>
       </c>
       <c r="B22" t="str">
         <v>1</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>21373</v>
+        <v>25001</v>
       </c>
       <c r="B23" t="str">
         <v>1</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>21375</v>
+        <v>25002</v>
       </c>
       <c r="B24" t="str">
         <v>1</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>21376</v>
+        <v>25003</v>
       </c>
       <c r="B25" t="str">
         <v>1</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>21377</v>
+        <v>25004</v>
       </c>
       <c r="B26" t="str">
         <v>1</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>21832</v>
+        <v>25006</v>
       </c>
       <c r="B27" t="str">
         <v>1</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>21833</v>
+        <v>25007</v>
       </c>
       <c r="B28" t="str">
         <v>1</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>21834</v>
+        <v>25008</v>
       </c>
       <c r="B29" t="str">
         <v>1</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>24540</v>
+        <v>25009</v>
       </c>
       <c r="B30" t="str">
         <v>1</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>24541</v>
+        <v>25011</v>
       </c>
       <c r="B31" t="str">
         <v>1</v>
@@ -629,39 +629,39 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>24542</v>
+        <v>25260</v>
       </c>
       <c r="B32" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>24543</v>
+        <v>25261</v>
       </c>
       <c r="B33" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>24544</v>
+        <v>25262</v>
       </c>
       <c r="B34" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>24686</v>
+        <v>25285</v>
       </c>
       <c r="B35" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>24687</v>
+        <v>25286</v>
       </c>
       <c r="B36" t="str">
         <v>1</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>24688</v>
+        <v>25287</v>
       </c>
       <c r="B37" t="str">
         <v>1</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>25283</v>
+        <v>25288</v>
       </c>
       <c r="B38" t="str">
         <v>1</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>25284</v>
+        <v>25316</v>
       </c>
       <c r="B39" t="str">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>25464</v>
+        <v>25345</v>
       </c>
       <c r="B40" t="str">
         <v>1</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>25466</v>
+        <v>25346</v>
       </c>
       <c r="B41" t="str">
         <v>1</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>25467</v>
+        <v>25347</v>
       </c>
       <c r="B42" t="str">
         <v>1</v>
@@ -717,15 +717,15 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>25468</v>
+        <v>25496</v>
       </c>
       <c r="B43" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>25491</v>
+        <v>25497</v>
       </c>
       <c r="B44" t="str">
         <v>1</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>25492</v>
+        <v>25498</v>
       </c>
       <c r="B45" t="str">
         <v>1</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>25493</v>
+        <v>25500</v>
       </c>
       <c r="B46" t="str">
         <v>1</v>
@@ -749,55 +749,55 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>26013</v>
+        <v>25957</v>
       </c>
       <c r="B47" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>26014</v>
+        <v>25958</v>
       </c>
       <c r="B48" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>26015</v>
+        <v>25959</v>
       </c>
       <c r="B49" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>26127</v>
+        <v>25960</v>
       </c>
       <c r="B50" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>26128</v>
+        <v>26520</v>
       </c>
       <c r="B51" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>26739</v>
+        <v>27899</v>
       </c>
       <c r="B52" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>26740</v>
+        <v>27900</v>
       </c>
       <c r="B53" t="str">
         <v>1</v>
@@ -805,15 +805,15 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>26828</v>
+        <v>31196</v>
       </c>
       <c r="B54" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>26829</v>
+        <v>23482</v>
       </c>
       <c r="B55" t="str">
         <v>1</v>
@@ -821,31 +821,31 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>26830</v>
+        <v>23483</v>
       </c>
       <c r="B56" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>26831</v>
+        <v>23484</v>
       </c>
       <c r="B57" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>26832</v>
+        <v>23486</v>
       </c>
       <c r="B58" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>26839</v>
+        <v>23487</v>
       </c>
       <c r="B59" t="str">
         <v>1</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>26842</v>
+        <v>23488</v>
       </c>
       <c r="B60" t="str">
         <v>1</v>
@@ -861,31 +861,31 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>22226</v>
+        <v>23489</v>
       </c>
       <c r="B61" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>22227</v>
+        <v>23490</v>
       </c>
       <c r="B62" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>22229</v>
+        <v>23491</v>
       </c>
       <c r="B63" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>22230</v>
+        <v>23492</v>
       </c>
       <c r="B64" t="str">
         <v>1</v>
@@ -893,15 +893,15 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>22231</v>
+        <v>23493</v>
       </c>
       <c r="B65" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>22235</v>
+        <v>23494</v>
       </c>
       <c r="B66" t="str">
         <v>1</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>26958</v>
+        <v>23495</v>
       </c>
       <c r="B67" t="str">
         <v>1</v>
@@ -917,23 +917,23 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>27287</v>
+        <v>24588</v>
       </c>
       <c r="B68" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>27289</v>
+        <v>25740</v>
       </c>
       <c r="B69" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>27291</v>
+        <v>25741</v>
       </c>
       <c r="B70" t="str">
         <v>1</v>
@@ -941,23 +941,23 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>27299</v>
+        <v>25743</v>
       </c>
       <c r="B71" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>21738</v>
+        <v>25744</v>
       </c>
       <c r="B72" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>21739</v>
+        <v>20410</v>
       </c>
       <c r="B73" t="str">
         <v>1</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>21740</v>
+        <v>20411</v>
       </c>
       <c r="B74" t="str">
         <v>1</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>21741</v>
+        <v>20412</v>
       </c>
       <c r="B75" t="str">
         <v>1</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>21742</v>
+        <v>25250</v>
       </c>
       <c r="B76" t="str">
         <v>1</v>
@@ -989,679 +989,15 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>21743</v>
+        <v>24202</v>
       </c>
       <c r="B77" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>22820</v>
-      </c>
-      <c r="B78" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>22821</v>
-      </c>
-      <c r="B79" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>22822</v>
-      </c>
-      <c r="B80" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>20164</v>
-      </c>
-      <c r="B81" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>20165</v>
-      </c>
-      <c r="B82" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>20274</v>
-      </c>
-      <c r="B83" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>20275</v>
-      </c>
-      <c r="B84" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>20276</v>
-      </c>
-      <c r="B85" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>20290</v>
-      </c>
-      <c r="B86" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>20538</v>
-      </c>
-      <c r="B87" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>20539</v>
-      </c>
-      <c r="B88" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>20540</v>
-      </c>
-      <c r="B89" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>20541</v>
-      </c>
-      <c r="B90" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>20542</v>
-      </c>
-      <c r="B91" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>20543</v>
-      </c>
-      <c r="B92" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>21025</v>
-      </c>
-      <c r="B93" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>21026</v>
-      </c>
-      <c r="B94" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>21027</v>
-      </c>
-      <c r="B95" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>21029</v>
-      </c>
-      <c r="B96" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>21189</v>
-      </c>
-      <c r="B97" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>21190</v>
-      </c>
-      <c r="B98" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>21280</v>
-      </c>
-      <c r="B99" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>21281</v>
-      </c>
-      <c r="B100" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>21282</v>
-      </c>
-      <c r="B101" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>21284</v>
-      </c>
-      <c r="B102" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>21285</v>
-      </c>
-      <c r="B103" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>21737</v>
-      </c>
-      <c r="B104" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>21775</v>
-      </c>
-      <c r="B105" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>23223</v>
-      </c>
-      <c r="B106" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>24127</v>
-      </c>
-      <c r="B107" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>24128</v>
-      </c>
-      <c r="B108" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>24129</v>
-      </c>
-      <c r="B109" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>24130</v>
-      </c>
-      <c r="B110" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>24184</v>
-      </c>
-      <c r="B111" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>24186</v>
-      </c>
-      <c r="B112" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>24187</v>
-      </c>
-      <c r="B113" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>24689</v>
-      </c>
-      <c r="B114" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>24823</v>
-      </c>
-      <c r="B115" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>25113</v>
-      </c>
-      <c r="B116" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>25123</v>
-      </c>
-      <c r="B117" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>25292</v>
-      </c>
-      <c r="B118" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>25296</v>
-      </c>
-      <c r="B119" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>25297</v>
-      </c>
-      <c r="B120" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>25449</v>
-      </c>
-      <c r="B121" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>25450</v>
-      </c>
-      <c r="B122" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>25482</v>
-      </c>
-      <c r="B123" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>25483</v>
-      </c>
-      <c r="B124" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>25484</v>
-      </c>
-      <c r="B125" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>25485</v>
-      </c>
-      <c r="B126" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>25851</v>
-      </c>
-      <c r="B127" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>25898</v>
-      </c>
-      <c r="B128" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>25899</v>
-      </c>
-      <c r="B129" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>25900</v>
-      </c>
-      <c r="B130" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>25901</v>
-      </c>
-      <c r="B131" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>25902</v>
-      </c>
-      <c r="B132" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>25911</v>
-      </c>
-      <c r="B133" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>26196</v>
-      </c>
-      <c r="B134" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>26197</v>
-      </c>
-      <c r="B135" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>26198</v>
-      </c>
-      <c r="B136" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>26199</v>
-      </c>
-      <c r="B137" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>26200</v>
-      </c>
-      <c r="B138" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>26201</v>
-      </c>
-      <c r="B139" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>26202</v>
-      </c>
-      <c r="B140" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>26203</v>
-      </c>
-      <c r="B141" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>26204</v>
-      </c>
-      <c r="B142" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>26959</v>
-      </c>
-      <c r="B143" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>27007</v>
-      </c>
-      <c r="B144" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>27009</v>
-      </c>
-      <c r="B145" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>27010</v>
-      </c>
-      <c r="B146" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>27012</v>
-      </c>
-      <c r="B147" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>27032</v>
-      </c>
-      <c r="B148" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>27065</v>
-      </c>
-      <c r="B149" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>27066</v>
-      </c>
-      <c r="B150" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>27085</v>
-      </c>
-      <c r="B151" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>27086</v>
-      </c>
-      <c r="B152" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>27087</v>
-      </c>
-      <c r="B153" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>27088</v>
-      </c>
-      <c r="B154" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>27089</v>
-      </c>
-      <c r="B155" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>27090</v>
-      </c>
-      <c r="B156" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>27106</v>
-      </c>
-      <c r="B157" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>27969</v>
-      </c>
-      <c r="B158" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>27970</v>
-      </c>
-      <c r="B159" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>31095</v>
-      </c>
-      <c r="B160" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B160"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B77"/>
   </ignoredErrors>
 </worksheet>
 </file>
